--- a/public/temp/placedData.xlsx
+++ b/public/temp/placedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c2ce842ce4e0359/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{6384109F-9F4A-4D30-B2C6-B411494ADD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F2B40F5-F0C6-4D2A-BA29-DEFDD1BC0A42}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{6384109F-9F4A-4D30-B2C6-B411494ADD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50219A89-8249-4D9B-98A5-82737399DCB5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{061BA296-C2E3-4D18-AE0B-277D8C6D9FDC}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{061BA296-C2E3-4D18-AE0B-277D8C6D9FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>rollNumber</t>
   </si>
@@ -33,13 +33,10 @@
     <t>driveId</t>
   </si>
   <si>
-    <t>65ef302f6afc33ff8ff59897</t>
-  </si>
-  <si>
     <t>20l31a02e2</t>
   </si>
   <si>
-    <t>20l31a02e3</t>
+    <t>65ef2f726afc33ff8ff59891</t>
   </si>
 </sst>
 </file>
@@ -123,6 +120,22 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -426,7 +439,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,42 +458,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
